--- a/Code_Smells.xlsx
+++ b/Code_Smells.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AFFB3BDF-2BA5-46BC-9D1D-1F81E6D84D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8861E14A-6146-4D48-8876-E25EDD003722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="14640" windowHeight="13224" xr2:uid="{00B73718-A218-4BB5-A155-7549172451AD}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="14664" windowHeight="13224" xr2:uid="{00B73718-A218-4BB5-A155-7549172451AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Code Smells" sheetId="8" r:id="rId1"/>
+    <sheet name="Folha1" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="D1:L15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1329,8 +1330,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6625,4 +6626,16 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2949AB-916D-4F90-9C0D-CA15E131993A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>